--- a/Texts/Город Сокровищ/Все персонажи/Ксату.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Ксату.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -34,6 +34,27 @@
   </si>
   <si>
     <t>Конвертированная строка</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/enter09.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We all have a purpose. One that\nis unique to each of us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> One must serve that purpose the\nbest they can. Kwah... Hah!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> У нас всех есть цель в жизни.\nУ каждого она своя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Каждый должен достичь этой\nцели, приложив максимум усилий. Квох... Ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ô îàò âòåö åòóû øåìû â çéèîé.\nÔ ëàçäïãï ïîà òâïÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàçäúê äïìçåî äïòóéœû üóïê\nøåìé, ðñéìïçéâ íàëòéíôí ôòéìéê. Ëâïö... Öà!</t>
   </si>
 </sst>
 </file>
@@ -397,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,6 +451,37 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>311</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>314</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Ксату.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Ксату.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -55,6 +55,42 @@
   </si>
   <si>
     <t xml:space="preserve"> Ëàçäúê äïìçåî äïòóéœû üóïê\nøåìé, ðñéìïçéâ íàëòéíôí ôòéìéê. Ëâïö... Öà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]It has been a long time…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Мы давно не виделись...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Íú äàâîï îå âéäåìéòû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .............................................[K]\nTime marches on inexorably.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The time allowed you is but\nlittle. However…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You, I can tell, shall prevail.[K]\nBut you must not falter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .............................................[K]\nВремя неумолимо ускользает.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вам отведено мало времени.\nОднако...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы, должен сказать, справитесь.\nНо не падайте духом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .............................................[K]\nÂñåíÿ îåôíïìéíï ôòëïìûèàåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàí ïóâåäåîï íàìï âñåíåîé.\nÏäîàëï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú, äïìçåî òëàèàóû, òðñàâéóåòû.\nÎï îå ðàäàêóå äôöïí.</t>
   </si>
 </sst>
 </file>
@@ -85,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -117,11 +153,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -136,6 +192,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,17 +537,75 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6">
         <v>314</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8">
+        <v>273</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>226</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>229</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>232</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Ксату.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Ксату.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Âú, äïìçåî òëàèàóû, òðñàâéóåòû.\nÎï îå ðàäàêóå äôöïí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]You two... I commend you\nfor graduating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Вы двое... Поздравляю вас\nс выпуском.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Âú äâïå... Ðïèäñàâìÿý âàò\nò âúðôòëïí.</t>
   </si>
 </sst>
 </file>
@@ -486,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,17 +604,32 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6">
         <v>232</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>188</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Ксату.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Ксату.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -100,6 +100,78 @@
   </si>
   <si>
     <t xml:space="preserve"> ...[K]Âú äâïå... Ðïèäñàâìÿý âàò\nò âúðôòëïí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Team [CS:X]Charm[CR]... Kwah-ha-ha...\nJust lovely…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Команда [CS:X]Шарм[CR]... Квох-ха-ха...\nПросто чудесны...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ëïíàîäà [CS:X]Šàñí[CR]... Ëâïö-öà-öà...\nÐñïòóï œôäåòîú...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Malevolent darkness…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The darkness spreads and\ndeepens…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Its progress can be halted,\nyes...[K] But only by you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I shall ask this of you.[K]\nStop [CS:N]Darkrai[CR]\'s future of nightmares…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Зловещая тьма...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тьма ширится и укрепляется...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Её можно остановить, да...[K]\nНо только вам это по силам.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я прошу вас.[K] Не дайте сбыться\nкошмарному будущему [CS:N]Даркрая[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]The darkness..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The malevolent darkness has\nmelted away…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It is your doing. You have\nmy thanks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Тьма...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зловешая тьма отступила...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это ваша заслуга. Искренне\nблагодарю вас.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Óûíà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èìïâåšàÿ óûíà ïóòóôðéìà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï âàšà èàòìôãà. Éòëñåîîå\náìàãïäàñý âàò.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Èìïâåþàÿ óûíà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óûíà šéñéóòÿ é ôëñåðìÿåóòÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åæ íïçîï ïòóàîïâéóû, äà...[K]\nÎï óïìûëï âàí üóï ðï òéìàí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðñïšô âàò.[K] Îå äàêóå òáúóûòÿ\nëïšíàñîïíô áôäôþåíô [CS:N]Äàñëñàÿ[CR]...</t>
   </si>
 </sst>
 </file>
@@ -495,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,17 +691,132 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8">
         <v>188</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8">
+        <v>161</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>97</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>100</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>103</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6">
+        <v>106</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>67</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>70</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>73</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
